--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Adm-Calcrl.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Adm-Calcrl.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Adm</t>
+  </si>
+  <si>
+    <t>Calcrl</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Adm</t>
-  </si>
-  <si>
-    <t>Calcrl</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.81352933333334</v>
+        <v>7.312510333333333</v>
       </c>
       <c r="H2">
-        <v>38.44058800000001</v>
+        <v>21.937531</v>
       </c>
       <c r="I2">
-        <v>0.3471629989654041</v>
+        <v>0.2480018119509629</v>
       </c>
       <c r="J2">
-        <v>0.3561136181091343</v>
+        <v>0.251002285750873</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>54.08088833333333</v>
+        <v>40.688829</v>
       </c>
       <c r="N2">
-        <v>162.242665</v>
+        <v>122.066487</v>
       </c>
       <c r="O2">
-        <v>0.5501595266871953</v>
+        <v>0.5299680863154126</v>
       </c>
       <c r="P2">
-        <v>0.5736166769323061</v>
+        <v>0.5381766555421038</v>
       </c>
       <c r="Q2">
-        <v>692.9670490318912</v>
+        <v>297.537482513733</v>
       </c>
       <c r="R2">
-        <v>6236.703441287021</v>
+        <v>2677.837342623597</v>
       </c>
       <c r="S2">
-        <v>0.190995031194114</v>
+        <v>0.1314330456824066</v>
       </c>
       <c r="T2">
-        <v>0.2042727102301019</v>
+        <v>0.1350835706788283</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.81352933333334</v>
+        <v>7.312510333333333</v>
       </c>
       <c r="H3">
-        <v>38.44058800000001</v>
+        <v>21.937531</v>
       </c>
       <c r="I3">
-        <v>0.3471629989654041</v>
+        <v>0.2480018119509629</v>
       </c>
       <c r="J3">
-        <v>0.3561136181091343</v>
+        <v>0.251002285750873</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>42.66566</v>
       </c>
       <c r="O3">
-        <v>0.1446778460610025</v>
+        <v>0.1852387066860051</v>
       </c>
       <c r="P3">
-        <v>0.1508464749905558</v>
+        <v>0.1881078318023236</v>
       </c>
       <c r="Q3">
-        <v>182.2325619786756</v>
+        <v>103.9976932094956</v>
       </c>
       <c r="R3">
-        <v>1640.09305780808</v>
+        <v>935.9792388854601</v>
       </c>
       <c r="S3">
-        <v>0.05022679492239272</v>
+        <v>0.0459395349015822</v>
       </c>
       <c r="T3">
-        <v>0.05371848398789585</v>
+        <v>0.04721549575002397</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.81352933333334</v>
+        <v>7.312510333333333</v>
       </c>
       <c r="H4">
-        <v>38.44058800000001</v>
+        <v>21.937531</v>
       </c>
       <c r="I4">
-        <v>0.3471629989654041</v>
+        <v>0.2480018119509629</v>
       </c>
       <c r="J4">
-        <v>0.3561136181091343</v>
+        <v>0.251002285750873</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.863198666666666</v>
+        <v>10.24048933333333</v>
       </c>
       <c r="N4">
-        <v>23.589596</v>
+        <v>30.721468</v>
       </c>
       <c r="O4">
-        <v>0.07999154211441334</v>
+        <v>0.1333813891503258</v>
       </c>
       <c r="P4">
-        <v>0.08340214127828596</v>
+        <v>0.1354473066926532</v>
       </c>
       <c r="Q4">
-        <v>100.7553267691609</v>
+        <v>74.88368406838978</v>
       </c>
       <c r="R4">
-        <v>906.7979409224481</v>
+        <v>673.9531566155081</v>
       </c>
       <c r="S4">
-        <v>0.02777010365230716</v>
+        <v>0.03307882618981731</v>
       </c>
       <c r="T4">
-        <v>0.0297006382886596</v>
+        <v>0.03399758357865547</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.81352933333334</v>
+        <v>7.312510333333333</v>
       </c>
       <c r="H5">
-        <v>38.44058800000001</v>
+        <v>21.937531</v>
       </c>
       <c r="I5">
-        <v>0.3471629989654041</v>
+        <v>0.2480018119509629</v>
       </c>
       <c r="J5">
-        <v>0.3561136181091343</v>
+        <v>0.251002285750873</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.059517</v>
+        <v>3.5130905</v>
       </c>
       <c r="N5">
-        <v>24.119034</v>
+        <v>7.026181</v>
       </c>
       <c r="O5">
-        <v>0.1226802733694528</v>
+        <v>0.04575766604976163</v>
       </c>
       <c r="P5">
-        <v>0.08527399456793505</v>
+        <v>0.03097759823147425</v>
       </c>
       <c r="Q5">
-        <v>154.524974825332</v>
+        <v>25.68951058318517</v>
       </c>
       <c r="R5">
-        <v>927.1498489519921</v>
+        <v>154.137063499111</v>
       </c>
       <c r="S5">
-        <v>0.04259005161683485</v>
+        <v>0.01134798409098794</v>
       </c>
       <c r="T5">
-        <v>0.03036723073620602</v>
+        <v>0.007775447963172236</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.81352933333334</v>
+        <v>7.312510333333333</v>
       </c>
       <c r="H6">
-        <v>38.44058800000001</v>
+        <v>21.937531</v>
       </c>
       <c r="I6">
-        <v>0.3471629989654041</v>
+        <v>0.2480018119509629</v>
       </c>
       <c r="J6">
-        <v>0.3561136181091343</v>
+        <v>0.251002285750873</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.07488533333333</v>
+        <v>8.111703</v>
       </c>
       <c r="N6">
-        <v>30.224656</v>
+        <v>24.335109</v>
       </c>
       <c r="O6">
-        <v>0.102490811767936</v>
+        <v>0.1056541517984947</v>
       </c>
       <c r="P6">
-        <v>0.1068607122309171</v>
+        <v>0.1072906077314452</v>
       </c>
       <c r="Q6">
-        <v>129.0948387486365</v>
+        <v>59.316912008431</v>
       </c>
       <c r="R6">
-        <v>1161.853548737728</v>
+        <v>533.8522080758789</v>
       </c>
       <c r="S6">
-        <v>0.0355810175797554</v>
+        <v>0.02620242108616876</v>
       </c>
       <c r="T6">
-        <v>0.03805455486627092</v>
+        <v>0.02693018778019302</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>62.438235</v>
       </c>
       <c r="I7">
-        <v>0.563889525121381</v>
+        <v>0.7058586226052527</v>
       </c>
       <c r="J7">
-        <v>0.5784278267074994</v>
+        <v>0.7143985211120685</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>54.08088833333333</v>
+        <v>40.688829</v>
       </c>
       <c r="N7">
-        <v>162.242665</v>
+        <v>122.066487</v>
       </c>
       <c r="O7">
-        <v>0.5501595266871953</v>
+        <v>0.5299680863154126</v>
       </c>
       <c r="P7">
-        <v>0.5736166769323061</v>
+        <v>0.5381766555421038</v>
       </c>
       <c r="Q7">
-        <v>1125.571738255142</v>
+        <v>846.8462223256049</v>
       </c>
       <c r="R7">
-        <v>10130.14564429627</v>
+        <v>7621.616000930445</v>
       </c>
       <c r="S7">
-        <v>0.3102291942446463</v>
+        <v>0.3740825434313388</v>
       </c>
       <c r="T7">
-        <v>0.3317958478011316</v>
+        <v>0.3844726068163181</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>62.438235</v>
       </c>
       <c r="I8">
-        <v>0.563889525121381</v>
+        <v>0.7058586226052527</v>
       </c>
       <c r="J8">
-        <v>0.5784278267074994</v>
+        <v>0.7143985211120685</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>42.66566</v>
       </c>
       <c r="O8">
-        <v>0.1446778460610025</v>
+        <v>0.1852387066860051</v>
       </c>
       <c r="P8">
-        <v>0.1508464749905558</v>
+        <v>0.1881078318023236</v>
       </c>
       <c r="Q8">
         <v>295.9965006122334</v>
@@ -948,10 +948,10 @@
         <v>2663.9685055101</v>
       </c>
       <c r="S8">
-        <v>0.08158232191092299</v>
+        <v>0.1307523383545619</v>
       </c>
       <c r="T8">
-        <v>0.08725379869527432</v>
+        <v>0.1343839568491777</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>62.438235</v>
       </c>
       <c r="I9">
-        <v>0.563889525121381</v>
+        <v>0.7058586226052527</v>
       </c>
       <c r="J9">
-        <v>0.5784278267074994</v>
+        <v>0.7143985211120685</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.863198666666666</v>
+        <v>10.24048933333333</v>
       </c>
       <c r="N9">
-        <v>23.589596</v>
+        <v>30.721468</v>
       </c>
       <c r="O9">
-        <v>0.07999154211441334</v>
+        <v>0.1333813891503258</v>
       </c>
       <c r="P9">
-        <v>0.08340214127828596</v>
+        <v>0.1354473066926532</v>
       </c>
       <c r="Q9">
-        <v>163.6547487336733</v>
+        <v>213.1326931698867</v>
       </c>
       <c r="R9">
-        <v>1472.89273860306</v>
+        <v>1918.19423852898</v>
       </c>
       <c r="S9">
-        <v>0.04510639269662349</v>
+        <v>0.09414840362682418</v>
       </c>
       <c r="T9">
-        <v>0.04824211932235077</v>
+        <v>0.09676335558984422</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1042,10 +1042,10 @@
         <v>62.438235</v>
       </c>
       <c r="I10">
-        <v>0.563889525121381</v>
+        <v>0.7058586226052527</v>
       </c>
       <c r="J10">
-        <v>0.5784278267074994</v>
+        <v>0.7143985211120685</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.059517</v>
+        <v>3.5130905</v>
       </c>
       <c r="N10">
-        <v>24.119034</v>
+        <v>7.026181</v>
       </c>
       <c r="O10">
-        <v>0.1226802733694528</v>
+        <v>0.04575766604976163</v>
       </c>
       <c r="P10">
-        <v>0.08527399456793505</v>
+        <v>0.03097759823147425</v>
       </c>
       <c r="Q10">
-        <v>250.991652144165</v>
+        <v>73.11705673842251</v>
       </c>
       <c r="R10">
-        <v>1505.94991286499</v>
+        <v>438.702340430535</v>
       </c>
       <c r="S10">
-        <v>0.06917812109206196</v>
+        <v>0.03229844313151588</v>
       </c>
       <c r="T10">
-        <v>0.04932485135259778</v>
+        <v>0.02213035036416903</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>62.438235</v>
       </c>
       <c r="I11">
-        <v>0.563889525121381</v>
+        <v>0.7058586226052527</v>
       </c>
       <c r="J11">
-        <v>0.5784278267074994</v>
+        <v>0.7143985211120685</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.07488533333333</v>
+        <v>8.111703</v>
       </c>
       <c r="N11">
-        <v>30.224656</v>
+        <v>24.335109</v>
       </c>
       <c r="O11">
-        <v>0.102490811767936</v>
+        <v>0.1056541517984947</v>
       </c>
       <c r="P11">
-        <v>0.1068607122309171</v>
+        <v>0.1072906077314452</v>
       </c>
       <c r="Q11">
-        <v>209.6860193469067</v>
+        <v>168.826806054735</v>
       </c>
       <c r="R11">
-        <v>1887.17417412216</v>
+        <v>1519.441254492615</v>
       </c>
       <c r="S11">
-        <v>0.05779349517712629</v>
+        <v>0.07457689406101171</v>
       </c>
       <c r="T11">
-        <v>0.06181120953614489</v>
+        <v>0.07664825149255948</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.4470076666666666</v>
+        <v>0.303044</v>
       </c>
       <c r="H12">
-        <v>1.341023</v>
+        <v>0.9091320000000001</v>
       </c>
       <c r="I12">
-        <v>0.01211098972683725</v>
+        <v>0.0102776553707253</v>
       </c>
       <c r="J12">
-        <v>0.01242323745145536</v>
+        <v>0.01040200057377754</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>54.08088833333333</v>
+        <v>40.688829</v>
       </c>
       <c r="N12">
-        <v>162.242665</v>
+        <v>122.066487</v>
       </c>
       <c r="O12">
-        <v>0.5501595266871953</v>
+        <v>0.5299680863154126</v>
       </c>
       <c r="P12">
-        <v>0.5736166769323061</v>
+        <v>0.5381766555421038</v>
       </c>
       <c r="Q12">
-        <v>24.17457170514388</v>
+        <v>12.330505495476</v>
       </c>
       <c r="R12">
-        <v>217.571145346295</v>
+        <v>110.974549459284</v>
       </c>
       <c r="S12">
-        <v>0.006662976375830263</v>
+        <v>0.005446829348632612</v>
       </c>
       <c r="T12">
-        <v>0.007126176183644796</v>
+        <v>0.005598113879742642</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.4470076666666666</v>
+        <v>0.303044</v>
       </c>
       <c r="H13">
-        <v>1.341023</v>
+        <v>0.9091320000000001</v>
       </c>
       <c r="I13">
-        <v>0.01211098972683725</v>
+        <v>0.0102776553707253</v>
       </c>
       <c r="J13">
-        <v>0.01242323745145536</v>
+        <v>0.01040200057377754</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>42.66566</v>
       </c>
       <c r="O13">
-        <v>0.1446778460610025</v>
+        <v>0.1852387066860051</v>
       </c>
       <c r="P13">
-        <v>0.1508464749905558</v>
+        <v>0.1881078318023236</v>
       </c>
       <c r="Q13">
-        <v>6.357292374464445</v>
+        <v>4.309857423013335</v>
       </c>
       <c r="R13">
-        <v>57.21563137018</v>
+        <v>38.78871680712</v>
       </c>
       <c r="S13">
-        <v>0.001752191907345742</v>
+        <v>0.001903819588637629</v>
       </c>
       <c r="T13">
-        <v>0.001874001577522697</v>
+        <v>0.001956697774339819</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.4470076666666666</v>
+        <v>0.303044</v>
       </c>
       <c r="H14">
-        <v>1.341023</v>
+        <v>0.9091320000000001</v>
       </c>
       <c r="I14">
-        <v>0.01211098972683725</v>
+        <v>0.0102776553707253</v>
       </c>
       <c r="J14">
-        <v>0.01242323745145536</v>
+        <v>0.01040200057377754</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.863198666666666</v>
+        <v>10.24048933333333</v>
       </c>
       <c r="N14">
-        <v>23.589596</v>
+        <v>30.721468</v>
       </c>
       <c r="O14">
-        <v>0.07999154211441334</v>
+        <v>0.1333813891503258</v>
       </c>
       <c r="P14">
-        <v>0.08340214127828596</v>
+        <v>0.1354473066926532</v>
       </c>
       <c r="Q14">
-        <v>3.514910088523111</v>
+        <v>3.103318849530667</v>
       </c>
       <c r="R14">
-        <v>31.634190796708</v>
+        <v>27.929869645776</v>
       </c>
       <c r="S14">
-        <v>0.0009687767447815288</v>
+        <v>0.001370847950555648</v>
       </c>
       <c r="T14">
-        <v>0.001036124605059973</v>
+        <v>0.001408922961933601</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.4470076666666666</v>
+        <v>0.303044</v>
       </c>
       <c r="H15">
-        <v>1.341023</v>
+        <v>0.9091320000000001</v>
       </c>
       <c r="I15">
-        <v>0.01211098972683725</v>
+        <v>0.0102776553707253</v>
       </c>
       <c r="J15">
-        <v>0.01242323745145536</v>
+        <v>0.01040200057377754</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.059517</v>
+        <v>3.5130905</v>
       </c>
       <c r="N15">
-        <v>24.119034</v>
+        <v>7.026181</v>
       </c>
       <c r="O15">
-        <v>0.1226802733694528</v>
+        <v>0.04575766604976163</v>
       </c>
       <c r="P15">
-        <v>0.08527399456793505</v>
+        <v>0.03097759823147425</v>
       </c>
       <c r="Q15">
-        <v>5.390696555297</v>
+        <v>1.064620997482</v>
       </c>
       <c r="R15">
-        <v>32.34417933178199</v>
+        <v>6.387725984892</v>
       </c>
       <c r="S15">
-        <v>0.001485779530463028</v>
+        <v>0.0004702815222281875</v>
       </c>
       <c r="T15">
-        <v>0.001059379082951572</v>
+        <v>0.0003222289945780453</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.4470076666666666</v>
+        <v>0.303044</v>
       </c>
       <c r="H16">
-        <v>1.341023</v>
+        <v>0.9091320000000001</v>
       </c>
       <c r="I16">
-        <v>0.01211098972683725</v>
+        <v>0.0102776553707253</v>
       </c>
       <c r="J16">
-        <v>0.01242323745145536</v>
+        <v>0.01040200057377754</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>10.07488533333333</v>
+        <v>8.111703</v>
       </c>
       <c r="N16">
-        <v>30.224656</v>
+        <v>24.335109</v>
       </c>
       <c r="O16">
-        <v>0.102490811767936</v>
+        <v>0.1056541517984947</v>
       </c>
       <c r="P16">
-        <v>0.1068607122309171</v>
+        <v>0.1072906077314452</v>
       </c>
       <c r="Q16">
-        <v>4.503550984787556</v>
+        <v>2.458202923932</v>
       </c>
       <c r="R16">
-        <v>40.531958863088</v>
+        <v>22.123826315388</v>
       </c>
       <c r="S16">
-        <v>0.001241265168416683</v>
+        <v>0.001085876960671225</v>
       </c>
       <c r="T16">
-        <v>0.001327556002276324</v>
+        <v>0.001116036963183434</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,10 +1455,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.7830505</v>
+        <v>1.057414</v>
       </c>
       <c r="H17">
-        <v>5.566101</v>
+        <v>2.114828</v>
       </c>
       <c r="I17">
-        <v>0.07540250095957175</v>
+        <v>0.03586191007305911</v>
       </c>
       <c r="J17">
-        <v>0.05156436123898184</v>
+        <v>0.02419719256328104</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>54.08088833333333</v>
+        <v>40.688829</v>
       </c>
       <c r="N17">
-        <v>162.242665</v>
+        <v>122.066487</v>
       </c>
       <c r="O17">
-        <v>0.5501595266871953</v>
+        <v>0.5299680863154126</v>
       </c>
       <c r="P17">
-        <v>0.5736166769323061</v>
+        <v>0.5381766555421038</v>
       </c>
       <c r="Q17">
-        <v>150.5098433165275</v>
+        <v>43.024937428206</v>
       </c>
       <c r="R17">
-        <v>903.0590598991649</v>
+        <v>258.149624569236</v>
       </c>
       <c r="S17">
-        <v>0.04148340423894878</v>
+        <v>0.01900566785303456</v>
       </c>
       <c r="T17">
-        <v>0.02957817754204177</v>
+        <v>0.01302236416721485</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,10 +1517,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.7830505</v>
+        <v>1.057414</v>
       </c>
       <c r="H18">
-        <v>5.566101</v>
+        <v>2.114828</v>
       </c>
       <c r="I18">
-        <v>0.07540250095957175</v>
+        <v>0.03586191007305911</v>
       </c>
       <c r="J18">
-        <v>0.05156436123898184</v>
+        <v>0.02419719256328104</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>42.66566</v>
       </c>
       <c r="O18">
-        <v>0.1446778460610025</v>
+        <v>0.1852387066860051</v>
       </c>
       <c r="P18">
-        <v>0.1508464749905558</v>
+        <v>0.1881078318023236</v>
       </c>
       <c r="Q18">
-        <v>39.58022879861</v>
+        <v>15.03842206774667</v>
       </c>
       <c r="R18">
-        <v>237.48137279166</v>
+        <v>90.23053240648001</v>
       </c>
       <c r="S18">
-        <v>0.01090907142644352</v>
+        <v>0.006643013841223287</v>
       </c>
       <c r="T18">
-        <v>0.007778302128040056</v>
+        <v>0.004551681428782104</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,10 +1579,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.7830505</v>
+        <v>1.057414</v>
       </c>
       <c r="H19">
-        <v>5.566101</v>
+        <v>2.114828</v>
       </c>
       <c r="I19">
-        <v>0.07540250095957175</v>
+        <v>0.03586191007305911</v>
       </c>
       <c r="J19">
-        <v>0.05156436123898184</v>
+        <v>0.02419719256328104</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>7.863198666666666</v>
+        <v>10.24048933333333</v>
       </c>
       <c r="N19">
-        <v>23.589596</v>
+        <v>30.721468</v>
       </c>
       <c r="O19">
-        <v>0.07999154211441334</v>
+        <v>0.1333813891503258</v>
       </c>
       <c r="P19">
-        <v>0.08340214127828596</v>
+        <v>0.1354473066926532</v>
       </c>
       <c r="Q19">
-        <v>21.883678980866</v>
+        <v>10.82843678791733</v>
       </c>
       <c r="R19">
-        <v>131.302073885196</v>
+        <v>64.97062072750401</v>
       </c>
       <c r="S19">
-        <v>0.006031562331039676</v>
+        <v>0.004783311383128687</v>
       </c>
       <c r="T19">
-        <v>0.004300578140978136</v>
+        <v>0.003277444562219914</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,10 +1641,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.7830505</v>
+        <v>1.057414</v>
       </c>
       <c r="H20">
-        <v>5.566101</v>
+        <v>2.114828</v>
       </c>
       <c r="I20">
-        <v>0.07540250095957175</v>
+        <v>0.03586191007305911</v>
       </c>
       <c r="J20">
-        <v>0.05156436123898184</v>
+        <v>0.02419719256328104</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>12.059517</v>
+        <v>3.5130905</v>
       </c>
       <c r="N20">
-        <v>24.119034</v>
+        <v>7.026181</v>
       </c>
       <c r="O20">
-        <v>0.1226802733694528</v>
+        <v>0.04575766604976163</v>
       </c>
       <c r="P20">
-        <v>0.08527399456793505</v>
+        <v>0.03097759823147425</v>
       </c>
       <c r="Q20">
-        <v>33.5622448166085</v>
+        <v>3.714791077967</v>
       </c>
       <c r="R20">
-        <v>134.248979266434</v>
+        <v>14.859164311868</v>
       </c>
       <c r="S20">
-        <v>0.009250399430460691</v>
+        <v>0.001640957305029622</v>
       </c>
       <c r="T20">
-        <v>0.004397099060191978</v>
+        <v>0.0007495709095549364</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,13 +1703,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
         <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.7830505</v>
+        <v>1.057414</v>
       </c>
       <c r="H21">
-        <v>5.566101</v>
+        <v>2.114828</v>
       </c>
       <c r="I21">
-        <v>0.07540250095957175</v>
+        <v>0.03586191007305911</v>
       </c>
       <c r="J21">
-        <v>0.05156436123898184</v>
+        <v>0.02419719256328104</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,338 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>10.07488533333333</v>
+        <v>8.111703</v>
       </c>
       <c r="N21">
-        <v>30.224656</v>
+        <v>24.335109</v>
       </c>
       <c r="O21">
-        <v>0.102490811767936</v>
+        <v>0.1056541517984947</v>
       </c>
       <c r="P21">
-        <v>0.1068607122309171</v>
+        <v>0.1072906077314452</v>
       </c>
       <c r="Q21">
-        <v>28.038914664376</v>
+        <v>8.577428316042001</v>
       </c>
       <c r="R21">
-        <v>168.233487986256</v>
+        <v>51.464569896252</v>
       </c>
       <c r="S21">
-        <v>0.007728063532679083</v>
+        <v>0.003788959690642952</v>
       </c>
       <c r="T21">
-        <v>0.005510204367729895</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.05292733333333333</v>
-      </c>
-      <c r="H22">
-        <v>0.158782</v>
-      </c>
-      <c r="I22">
-        <v>0.001433985226805709</v>
-      </c>
-      <c r="J22">
-        <v>0.001470956492928895</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>54.08088833333333</v>
-      </c>
-      <c r="N22">
-        <v>162.242665</v>
-      </c>
-      <c r="O22">
-        <v>0.5501595266871953</v>
-      </c>
-      <c r="P22">
-        <v>0.5736166769323061</v>
-      </c>
-      <c r="Q22">
-        <v>2.862357203781111</v>
-      </c>
-      <c r="R22">
-        <v>25.76121483403</v>
-      </c>
-      <c r="S22">
-        <v>0.0007889206336558589</v>
-      </c>
-      <c r="T22">
-        <v>0.0008437651753858719</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.05292733333333333</v>
-      </c>
-      <c r="H23">
-        <v>0.158782</v>
-      </c>
-      <c r="I23">
-        <v>0.001433985226805709</v>
-      </c>
-      <c r="J23">
-        <v>0.001470956492928895</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>14.22188666666667</v>
-      </c>
-      <c r="N23">
-        <v>42.66566</v>
-      </c>
-      <c r="O23">
-        <v>0.1446778460610025</v>
-      </c>
-      <c r="P23">
-        <v>0.1508464749905558</v>
-      </c>
-      <c r="Q23">
-        <v>0.7527265362355556</v>
-      </c>
-      <c r="R23">
-        <v>6.774538826120001</v>
-      </c>
-      <c r="S23">
-        <v>0.0002074658938975481</v>
-      </c>
-      <c r="T23">
-        <v>0.0002218886018227941</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.05292733333333333</v>
-      </c>
-      <c r="H24">
-        <v>0.158782</v>
-      </c>
-      <c r="I24">
-        <v>0.001433985226805709</v>
-      </c>
-      <c r="J24">
-        <v>0.001470956492928895</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>7.863198666666666</v>
-      </c>
-      <c r="N24">
-        <v>23.589596</v>
-      </c>
-      <c r="O24">
-        <v>0.07999154211441334</v>
-      </c>
-      <c r="P24">
-        <v>0.08340214127828596</v>
-      </c>
-      <c r="Q24">
-        <v>0.4161781368968889</v>
-      </c>
-      <c r="R24">
-        <v>3.745603232072</v>
-      </c>
-      <c r="S24">
-        <v>0.0001147066896614754</v>
-      </c>
-      <c r="T24">
-        <v>0.0001226809212374677</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.05292733333333333</v>
-      </c>
-      <c r="H25">
-        <v>0.158782</v>
-      </c>
-      <c r="I25">
-        <v>0.001433985226805709</v>
-      </c>
-      <c r="J25">
-        <v>0.001470956492928895</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>12.059517</v>
-      </c>
-      <c r="N25">
-        <v>24.119034</v>
-      </c>
-      <c r="O25">
-        <v>0.1226802733694528</v>
-      </c>
-      <c r="P25">
-        <v>0.08527399456793505</v>
-      </c>
-      <c r="Q25">
-        <v>0.638278076098</v>
-      </c>
-      <c r="R25">
-        <v>3.829668456588</v>
-      </c>
-      <c r="S25">
-        <v>0.0001759216996322811</v>
-      </c>
-      <c r="T25">
-        <v>0.0001254343359876874</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.05292733333333333</v>
-      </c>
-      <c r="H26">
-        <v>0.158782</v>
-      </c>
-      <c r="I26">
-        <v>0.001433985226805709</v>
-      </c>
-      <c r="J26">
-        <v>0.001470956492928895</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>10.07488533333333</v>
-      </c>
-      <c r="N26">
-        <v>30.224656</v>
-      </c>
-      <c r="O26">
-        <v>0.102490811767936</v>
-      </c>
-      <c r="P26">
-        <v>0.1068607122309171</v>
-      </c>
-      <c r="Q26">
-        <v>0.5332368143324445</v>
-      </c>
-      <c r="R26">
-        <v>4.799131328992001</v>
-      </c>
-      <c r="S26">
-        <v>0.0001469703099585449</v>
-      </c>
-      <c r="T26">
-        <v>0.0001571874584950737</v>
+        <v>0.002596131495509227</v>
       </c>
     </row>
   </sheetData>
